--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/洽洽食品-JH_00034.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/洽洽食品-JH_00034.xlsx
@@ -237,8 +237,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
@@ -305,44 +305,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,9 +368,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -381,7 +405,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,17 +426,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,30 +436,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,19 +510,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,127 +564,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,13 +582,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,6 +742,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -753,6 +762,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,24 +807,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -816,17 +822,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -835,159 +835,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1002,7 +1002,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1062,13 +1062,13 @@
     <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1080,7 +1080,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1095,13 +1095,10 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3611,7 +3608,7 @@
         <f>($B6-VLOOKUP([1]交易计划及执行表!$A$24,[1]交易计划及执行表!$A$4:$AF10004,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$24,[1]交易计划及执行表!$A$4:$AF10004,6,FALSE)</f>
         <v>0.0580038885288399</v>
       </c>
-      <c r="AJ6" s="38" t="s">
+      <c r="AJ6" s="8" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3650,7 +3647,7 @@
       <c r="AD7" s="28"/>
       <c r="AE7" s="28"/>
       <c r="AF7" s="28"/>
-      <c r="AG7" s="39"/>
+      <c r="AG7" s="38"/>
       <c r="AI7" s="28"/>
       <c r="AJ7" s="28"/>
     </row>
@@ -3689,7 +3686,7 @@
       <c r="AD8" s="28"/>
       <c r="AE8" s="28"/>
       <c r="AF8" s="28"/>
-      <c r="AG8" s="39"/>
+      <c r="AG8" s="38"/>
       <c r="AI8" s="28"/>
       <c r="AJ8" s="28"/>
     </row>
@@ -3728,7 +3725,7 @@
       <c r="AD9" s="28"/>
       <c r="AE9" s="28"/>
       <c r="AF9" s="28"/>
-      <c r="AG9" s="39"/>
+      <c r="AG9" s="38"/>
       <c r="AI9" s="28"/>
       <c r="AJ9" s="28"/>
     </row>
@@ -3767,7 +3764,7 @@
       <c r="AD10" s="28"/>
       <c r="AE10" s="28"/>
       <c r="AF10" s="28"/>
-      <c r="AG10" s="39"/>
+      <c r="AG10" s="38"/>
       <c r="AI10" s="28"/>
       <c r="AJ10" s="28"/>
     </row>
@@ -3806,7 +3803,7 @@
       <c r="AD11" s="28"/>
       <c r="AE11" s="28"/>
       <c r="AF11" s="28"/>
-      <c r="AG11" s="39"/>
+      <c r="AG11" s="38"/>
       <c r="AI11" s="28"/>
       <c r="AJ11" s="28"/>
     </row>
@@ -3845,7 +3842,7 @@
       <c r="AD12" s="28"/>
       <c r="AE12" s="28"/>
       <c r="AF12" s="28"/>
-      <c r="AG12" s="39"/>
+      <c r="AG12" s="38"/>
       <c r="AI12" s="28"/>
       <c r="AJ12" s="28"/>
     </row>
@@ -3884,7 +3881,7 @@
       <c r="AD13" s="28"/>
       <c r="AE13" s="28"/>
       <c r="AF13" s="28"/>
-      <c r="AG13" s="39"/>
+      <c r="AG13" s="38"/>
       <c r="AI13" s="28"/>
       <c r="AJ13" s="28"/>
     </row>
@@ -3923,7 +3920,7 @@
       <c r="AD14" s="28"/>
       <c r="AE14" s="28"/>
       <c r="AF14" s="28"/>
-      <c r="AG14" s="39"/>
+      <c r="AG14" s="38"/>
       <c r="AI14" s="28"/>
       <c r="AJ14" s="28"/>
     </row>
@@ -3962,7 +3959,7 @@
       <c r="AD15" s="28"/>
       <c r="AE15" s="28"/>
       <c r="AF15" s="28"/>
-      <c r="AG15" s="39"/>
+      <c r="AG15" s="38"/>
       <c r="AI15" s="28"/>
       <c r="AJ15" s="28"/>
     </row>
@@ -4001,7 +3998,7 @@
       <c r="AD16" s="28"/>
       <c r="AE16" s="28"/>
       <c r="AF16" s="28"/>
-      <c r="AG16" s="39"/>
+      <c r="AG16" s="38"/>
       <c r="AI16" s="28"/>
       <c r="AJ16" s="28"/>
     </row>
@@ -4040,7 +4037,7 @@
       <c r="AD17" s="28"/>
       <c r="AE17" s="28"/>
       <c r="AF17" s="28"/>
-      <c r="AG17" s="39"/>
+      <c r="AG17" s="38"/>
       <c r="AI17" s="28"/>
       <c r="AJ17" s="28"/>
     </row>
@@ -4079,7 +4076,7 @@
       <c r="AD18" s="28"/>
       <c r="AE18" s="28"/>
       <c r="AF18" s="28"/>
-      <c r="AG18" s="39"/>
+      <c r="AG18" s="38"/>
       <c r="AI18" s="28"/>
       <c r="AJ18" s="28"/>
     </row>
@@ -4118,7 +4115,7 @@
       <c r="AD19" s="28"/>
       <c r="AE19" s="28"/>
       <c r="AF19" s="28"/>
-      <c r="AG19" s="39"/>
+      <c r="AG19" s="38"/>
       <c r="AI19" s="28"/>
       <c r="AJ19" s="28"/>
     </row>
@@ -4157,7 +4154,7 @@
       <c r="AD20" s="28"/>
       <c r="AE20" s="28"/>
       <c r="AF20" s="28"/>
-      <c r="AG20" s="39"/>
+      <c r="AG20" s="38"/>
       <c r="AI20" s="28"/>
       <c r="AJ20" s="28"/>
     </row>
@@ -4196,7 +4193,7 @@
       <c r="AD21" s="28"/>
       <c r="AE21" s="28"/>
       <c r="AF21" s="28"/>
-      <c r="AG21" s="39"/>
+      <c r="AG21" s="38"/>
       <c r="AI21" s="28"/>
       <c r="AJ21" s="28"/>
     </row>
@@ -4235,7 +4232,7 @@
       <c r="AD22" s="28"/>
       <c r="AE22" s="28"/>
       <c r="AF22" s="28"/>
-      <c r="AG22" s="39"/>
+      <c r="AG22" s="38"/>
       <c r="AI22" s="28"/>
       <c r="AJ22" s="28"/>
     </row>
@@ -4274,7 +4271,7 @@
       <c r="AD23" s="28"/>
       <c r="AE23" s="28"/>
       <c r="AF23" s="28"/>
-      <c r="AG23" s="39"/>
+      <c r="AG23" s="38"/>
       <c r="AI23" s="28"/>
       <c r="AJ23" s="28"/>
     </row>
@@ -4313,7 +4310,7 @@
       <c r="AD24" s="28"/>
       <c r="AE24" s="28"/>
       <c r="AF24" s="28"/>
-      <c r="AG24" s="39"/>
+      <c r="AG24" s="38"/>
       <c r="AI24" s="28"/>
       <c r="AJ24" s="28"/>
     </row>
@@ -4352,7 +4349,7 @@
       <c r="AD25" s="28"/>
       <c r="AE25" s="28"/>
       <c r="AF25" s="28"/>
-      <c r="AG25" s="39"/>
+      <c r="AG25" s="38"/>
       <c r="AI25" s="28"/>
       <c r="AJ25" s="28"/>
     </row>
@@ -4391,7 +4388,7 @@
       <c r="AD26" s="28"/>
       <c r="AE26" s="28"/>
       <c r="AF26" s="28"/>
-      <c r="AG26" s="39"/>
+      <c r="AG26" s="38"/>
       <c r="AI26" s="28"/>
       <c r="AJ26" s="28"/>
     </row>
@@ -4430,7 +4427,7 @@
       <c r="AD27" s="28"/>
       <c r="AE27" s="28"/>
       <c r="AF27" s="28"/>
-      <c r="AG27" s="39"/>
+      <c r="AG27" s="38"/>
       <c r="AI27" s="28"/>
       <c r="AJ27" s="28"/>
     </row>
@@ -4469,7 +4466,7 @@
       <c r="AD28" s="28"/>
       <c r="AE28" s="28"/>
       <c r="AF28" s="28"/>
-      <c r="AG28" s="39"/>
+      <c r="AG28" s="38"/>
       <c r="AI28" s="28"/>
       <c r="AJ28" s="28"/>
     </row>
@@ -4508,7 +4505,7 @@
       <c r="AD29" s="28"/>
       <c r="AE29" s="28"/>
       <c r="AF29" s="28"/>
-      <c r="AG29" s="39"/>
+      <c r="AG29" s="38"/>
       <c r="AI29" s="28"/>
       <c r="AJ29" s="28"/>
     </row>
@@ -4547,7 +4544,7 @@
       <c r="AD30" s="28"/>
       <c r="AE30" s="28"/>
       <c r="AF30" s="28"/>
-      <c r="AG30" s="39"/>
+      <c r="AG30" s="38"/>
       <c r="AI30" s="28"/>
       <c r="AJ30" s="28"/>
     </row>
@@ -4586,7 +4583,7 @@
       <c r="AD31" s="28"/>
       <c r="AE31" s="28"/>
       <c r="AF31" s="28"/>
-      <c r="AG31" s="39"/>
+      <c r="AG31" s="38"/>
       <c r="AI31" s="28"/>
       <c r="AJ31" s="28"/>
     </row>
@@ -4625,7 +4622,7 @@
       <c r="AD32" s="28"/>
       <c r="AE32" s="28"/>
       <c r="AF32" s="28"/>
-      <c r="AG32" s="39"/>
+      <c r="AG32" s="38"/>
       <c r="AI32" s="28"/>
       <c r="AJ32" s="28"/>
     </row>
@@ -4664,7 +4661,7 @@
       <c r="AD33" s="28"/>
       <c r="AE33" s="28"/>
       <c r="AF33" s="28"/>
-      <c r="AG33" s="39"/>
+      <c r="AG33" s="38"/>
       <c r="AI33" s="28"/>
       <c r="AJ33" s="28"/>
     </row>
@@ -4703,7 +4700,7 @@
       <c r="AD34" s="28"/>
       <c r="AE34" s="28"/>
       <c r="AF34" s="28"/>
-      <c r="AG34" s="39"/>
+      <c r="AG34" s="38"/>
       <c r="AI34" s="28"/>
       <c r="AJ34" s="28"/>
     </row>
@@ -4742,7 +4739,7 @@
       <c r="AD35" s="28"/>
       <c r="AE35" s="28"/>
       <c r="AF35" s="28"/>
-      <c r="AG35" s="39"/>
+      <c r="AG35" s="38"/>
       <c r="AI35" s="28"/>
       <c r="AJ35" s="28"/>
     </row>
@@ -4781,7 +4778,7 @@
       <c r="AD36" s="28"/>
       <c r="AE36" s="28"/>
       <c r="AF36" s="28"/>
-      <c r="AG36" s="39"/>
+      <c r="AG36" s="38"/>
       <c r="AI36" s="28"/>
       <c r="AJ36" s="28"/>
     </row>
@@ -4820,7 +4817,7 @@
       <c r="AD37" s="28"/>
       <c r="AE37" s="28"/>
       <c r="AF37" s="28"/>
-      <c r="AG37" s="39"/>
+      <c r="AG37" s="38"/>
       <c r="AI37" s="28"/>
       <c r="AJ37" s="28"/>
     </row>
@@ -4859,7 +4856,7 @@
       <c r="AD38" s="28"/>
       <c r="AE38" s="28"/>
       <c r="AF38" s="28"/>
-      <c r="AG38" s="39"/>
+      <c r="AG38" s="38"/>
       <c r="AI38" s="28"/>
       <c r="AJ38" s="28"/>
     </row>
@@ -4898,7 +4895,7 @@
       <c r="AD39" s="28"/>
       <c r="AE39" s="28"/>
       <c r="AF39" s="28"/>
-      <c r="AG39" s="39"/>
+      <c r="AG39" s="38"/>
       <c r="AI39" s="28"/>
       <c r="AJ39" s="28"/>
     </row>
@@ -4937,7 +4934,7 @@
       <c r="AD40" s="28"/>
       <c r="AE40" s="28"/>
       <c r="AF40" s="28"/>
-      <c r="AG40" s="39"/>
+      <c r="AG40" s="38"/>
       <c r="AI40" s="28"/>
       <c r="AJ40" s="28"/>
     </row>
@@ -4976,7 +4973,7 @@
       <c r="AD41" s="28"/>
       <c r="AE41" s="28"/>
       <c r="AF41" s="28"/>
-      <c r="AG41" s="39"/>
+      <c r="AG41" s="38"/>
       <c r="AI41" s="28"/>
       <c r="AJ41" s="28"/>
     </row>
@@ -5015,7 +5012,7 @@
       <c r="AD42" s="28"/>
       <c r="AE42" s="28"/>
       <c r="AF42" s="28"/>
-      <c r="AG42" s="39"/>
+      <c r="AG42" s="38"/>
       <c r="AI42" s="28"/>
       <c r="AJ42" s="28"/>
     </row>
@@ -5054,7 +5051,7 @@
       <c r="AD43" s="28"/>
       <c r="AE43" s="28"/>
       <c r="AF43" s="28"/>
-      <c r="AG43" s="39"/>
+      <c r="AG43" s="38"/>
       <c r="AI43" s="28"/>
       <c r="AJ43" s="28"/>
     </row>
@@ -5093,7 +5090,7 @@
       <c r="AD44" s="28"/>
       <c r="AE44" s="28"/>
       <c r="AF44" s="28"/>
-      <c r="AG44" s="39"/>
+      <c r="AG44" s="38"/>
       <c r="AI44" s="28"/>
       <c r="AJ44" s="28"/>
     </row>
@@ -5132,7 +5129,7 @@
       <c r="AD45" s="28"/>
       <c r="AE45" s="28"/>
       <c r="AF45" s="28"/>
-      <c r="AG45" s="39"/>
+      <c r="AG45" s="38"/>
       <c r="AI45" s="28"/>
       <c r="AJ45" s="28"/>
     </row>
@@ -5171,7 +5168,7 @@
       <c r="AD46" s="28"/>
       <c r="AE46" s="28"/>
       <c r="AF46" s="28"/>
-      <c r="AG46" s="39"/>
+      <c r="AG46" s="38"/>
       <c r="AI46" s="28"/>
       <c r="AJ46" s="28"/>
     </row>
@@ -5210,7 +5207,7 @@
       <c r="AD47" s="28"/>
       <c r="AE47" s="28"/>
       <c r="AF47" s="28"/>
-      <c r="AG47" s="39"/>
+      <c r="AG47" s="38"/>
       <c r="AI47" s="28"/>
       <c r="AJ47" s="28"/>
     </row>
@@ -5249,7 +5246,7 @@
       <c r="AD48" s="28"/>
       <c r="AE48" s="28"/>
       <c r="AF48" s="28"/>
-      <c r="AG48" s="39"/>
+      <c r="AG48" s="38"/>
       <c r="AI48" s="28"/>
       <c r="AJ48" s="28"/>
     </row>
@@ -5288,7 +5285,7 @@
       <c r="AD49" s="28"/>
       <c r="AE49" s="28"/>
       <c r="AF49" s="28"/>
-      <c r="AG49" s="39"/>
+      <c r="AG49" s="38"/>
       <c r="AI49" s="28"/>
       <c r="AJ49" s="28"/>
     </row>
@@ -5327,7 +5324,7 @@
       <c r="AD50" s="28"/>
       <c r="AE50" s="28"/>
       <c r="AF50" s="28"/>
-      <c r="AG50" s="39"/>
+      <c r="AG50" s="38"/>
       <c r="AI50" s="28"/>
       <c r="AJ50" s="28"/>
     </row>
@@ -5366,7 +5363,7 @@
       <c r="AD51" s="28"/>
       <c r="AE51" s="28"/>
       <c r="AF51" s="28"/>
-      <c r="AG51" s="39"/>
+      <c r="AG51" s="38"/>
       <c r="AI51" s="28"/>
       <c r="AJ51" s="28"/>
     </row>
@@ -5405,7 +5402,7 @@
       <c r="AD52" s="28"/>
       <c r="AE52" s="28"/>
       <c r="AF52" s="28"/>
-      <c r="AG52" s="39"/>
+      <c r="AG52" s="38"/>
       <c r="AI52" s="28"/>
       <c r="AJ52" s="28"/>
     </row>
@@ -5444,7 +5441,7 @@
       <c r="AD53" s="28"/>
       <c r="AE53" s="28"/>
       <c r="AF53" s="28"/>
-      <c r="AG53" s="39"/>
+      <c r="AG53" s="38"/>
       <c r="AI53" s="28"/>
       <c r="AJ53" s="28"/>
     </row>
@@ -5483,7 +5480,7 @@
       <c r="AD54" s="28"/>
       <c r="AE54" s="28"/>
       <c r="AF54" s="28"/>
-      <c r="AG54" s="39"/>
+      <c r="AG54" s="38"/>
       <c r="AI54" s="28"/>
       <c r="AJ54" s="28"/>
     </row>
@@ -5522,7 +5519,7 @@
       <c r="AD55" s="28"/>
       <c r="AE55" s="28"/>
       <c r="AF55" s="28"/>
-      <c r="AG55" s="39"/>
+      <c r="AG55" s="38"/>
       <c r="AI55" s="28"/>
       <c r="AJ55" s="28"/>
     </row>
@@ -5561,7 +5558,7 @@
       <c r="AD56" s="28"/>
       <c r="AE56" s="28"/>
       <c r="AF56" s="28"/>
-      <c r="AG56" s="39"/>
+      <c r="AG56" s="38"/>
       <c r="AI56" s="28"/>
       <c r="AJ56" s="28"/>
     </row>
@@ -5600,7 +5597,7 @@
       <c r="AD57" s="28"/>
       <c r="AE57" s="28"/>
       <c r="AF57" s="28"/>
-      <c r="AG57" s="39"/>
+      <c r="AG57" s="38"/>
       <c r="AI57" s="28"/>
       <c r="AJ57" s="28"/>
     </row>
@@ -5639,7 +5636,7 @@
       <c r="AD58" s="28"/>
       <c r="AE58" s="28"/>
       <c r="AF58" s="28"/>
-      <c r="AG58" s="39"/>
+      <c r="AG58" s="38"/>
       <c r="AI58" s="28"/>
       <c r="AJ58" s="28"/>
     </row>
@@ -5678,7 +5675,7 @@
       <c r="AD59" s="28"/>
       <c r="AE59" s="28"/>
       <c r="AF59" s="28"/>
-      <c r="AG59" s="39"/>
+      <c r="AG59" s="38"/>
       <c r="AI59" s="28"/>
       <c r="AJ59" s="28"/>
     </row>
@@ -5717,7 +5714,7 @@
       <c r="AD60" s="28"/>
       <c r="AE60" s="28"/>
       <c r="AF60" s="28"/>
-      <c r="AG60" s="39"/>
+      <c r="AG60" s="38"/>
       <c r="AI60" s="28"/>
       <c r="AJ60" s="28"/>
     </row>
@@ -5756,7 +5753,7 @@
       <c r="AD61" s="28"/>
       <c r="AE61" s="28"/>
       <c r="AF61" s="28"/>
-      <c r="AG61" s="39"/>
+      <c r="AG61" s="38"/>
       <c r="AI61" s="28"/>
       <c r="AJ61" s="28"/>
     </row>
@@ -5795,7 +5792,7 @@
       <c r="AD62" s="28"/>
       <c r="AE62" s="28"/>
       <c r="AF62" s="28"/>
-      <c r="AG62" s="39"/>
+      <c r="AG62" s="38"/>
       <c r="AI62" s="28"/>
       <c r="AJ62" s="28"/>
     </row>
@@ -5834,7 +5831,7 @@
       <c r="AD63" s="28"/>
       <c r="AE63" s="28"/>
       <c r="AF63" s="28"/>
-      <c r="AG63" s="39"/>
+      <c r="AG63" s="38"/>
       <c r="AI63" s="28"/>
       <c r="AJ63" s="28"/>
     </row>
@@ -5873,7 +5870,7 @@
       <c r="AD64" s="28"/>
       <c r="AE64" s="28"/>
       <c r="AF64" s="28"/>
-      <c r="AG64" s="39"/>
+      <c r="AG64" s="38"/>
       <c r="AI64" s="28"/>
       <c r="AJ64" s="28"/>
     </row>
@@ -5912,7 +5909,7 @@
       <c r="AD65" s="28"/>
       <c r="AE65" s="28"/>
       <c r="AF65" s="28"/>
-      <c r="AG65" s="39"/>
+      <c r="AG65" s="38"/>
       <c r="AI65" s="28"/>
       <c r="AJ65" s="28"/>
     </row>
@@ -5951,7 +5948,7 @@
       <c r="AD66" s="28"/>
       <c r="AE66" s="28"/>
       <c r="AF66" s="28"/>
-      <c r="AG66" s="39"/>
+      <c r="AG66" s="38"/>
       <c r="AI66" s="28"/>
       <c r="AJ66" s="28"/>
     </row>
@@ -5990,7 +5987,7 @@
       <c r="AD67" s="28"/>
       <c r="AE67" s="28"/>
       <c r="AF67" s="28"/>
-      <c r="AG67" s="39"/>
+      <c r="AG67" s="38"/>
       <c r="AI67" s="28"/>
       <c r="AJ67" s="28"/>
     </row>
@@ -6029,7 +6026,7 @@
       <c r="AD68" s="28"/>
       <c r="AE68" s="28"/>
       <c r="AF68" s="28"/>
-      <c r="AG68" s="39"/>
+      <c r="AG68" s="38"/>
       <c r="AI68" s="28"/>
       <c r="AJ68" s="28"/>
     </row>
@@ -6068,7 +6065,7 @@
       <c r="AD69" s="28"/>
       <c r="AE69" s="28"/>
       <c r="AF69" s="28"/>
-      <c r="AG69" s="39"/>
+      <c r="AG69" s="38"/>
       <c r="AI69" s="28"/>
       <c r="AJ69" s="28"/>
     </row>
@@ -6107,7 +6104,7 @@
       <c r="AD70" s="28"/>
       <c r="AE70" s="28"/>
       <c r="AF70" s="28"/>
-      <c r="AG70" s="39"/>
+      <c r="AG70" s="38"/>
       <c r="AI70" s="28"/>
       <c r="AJ70" s="28"/>
     </row>
@@ -6146,7 +6143,7 @@
       <c r="AD71" s="28"/>
       <c r="AE71" s="28"/>
       <c r="AF71" s="28"/>
-      <c r="AG71" s="39"/>
+      <c r="AG71" s="38"/>
       <c r="AI71" s="28"/>
       <c r="AJ71" s="28"/>
     </row>
@@ -6185,7 +6182,7 @@
       <c r="AD72" s="28"/>
       <c r="AE72" s="28"/>
       <c r="AF72" s="28"/>
-      <c r="AG72" s="39"/>
+      <c r="AG72" s="38"/>
       <c r="AI72" s="28"/>
       <c r="AJ72" s="28"/>
     </row>
@@ -6224,7 +6221,7 @@
       <c r="AD73" s="28"/>
       <c r="AE73" s="28"/>
       <c r="AF73" s="28"/>
-      <c r="AG73" s="39"/>
+      <c r="AG73" s="38"/>
       <c r="AI73" s="28"/>
       <c r="AJ73" s="28"/>
     </row>
@@ -6263,7 +6260,7 @@
       <c r="AD74" s="28"/>
       <c r="AE74" s="28"/>
       <c r="AF74" s="28"/>
-      <c r="AG74" s="39"/>
+      <c r="AG74" s="38"/>
       <c r="AI74" s="28"/>
       <c r="AJ74" s="28"/>
     </row>
@@ -6302,7 +6299,7 @@
       <c r="AD75" s="28"/>
       <c r="AE75" s="28"/>
       <c r="AF75" s="28"/>
-      <c r="AG75" s="39"/>
+      <c r="AG75" s="38"/>
       <c r="AI75" s="28"/>
       <c r="AJ75" s="28"/>
     </row>
@@ -6341,7 +6338,7 @@
       <c r="AD76" s="28"/>
       <c r="AE76" s="28"/>
       <c r="AF76" s="28"/>
-      <c r="AG76" s="39"/>
+      <c r="AG76" s="38"/>
       <c r="AI76" s="28"/>
       <c r="AJ76" s="28"/>
     </row>
@@ -6380,7 +6377,7 @@
       <c r="AD77" s="28"/>
       <c r="AE77" s="28"/>
       <c r="AF77" s="28"/>
-      <c r="AG77" s="39"/>
+      <c r="AG77" s="38"/>
       <c r="AI77" s="28"/>
       <c r="AJ77" s="28"/>
     </row>
@@ -6419,7 +6416,7 @@
       <c r="AD78" s="28"/>
       <c r="AE78" s="28"/>
       <c r="AF78" s="28"/>
-      <c r="AG78" s="39"/>
+      <c r="AG78" s="38"/>
       <c r="AI78" s="28"/>
       <c r="AJ78" s="28"/>
     </row>
@@ -6458,7 +6455,7 @@
       <c r="AD79" s="28"/>
       <c r="AE79" s="28"/>
       <c r="AF79" s="28"/>
-      <c r="AG79" s="39"/>
+      <c r="AG79" s="38"/>
       <c r="AI79" s="28"/>
       <c r="AJ79" s="28"/>
     </row>
@@ -6497,7 +6494,7 @@
       <c r="AD80" s="28"/>
       <c r="AE80" s="28"/>
       <c r="AF80" s="28"/>
-      <c r="AG80" s="39"/>
+      <c r="AG80" s="38"/>
       <c r="AI80" s="28"/>
       <c r="AJ80" s="28"/>
     </row>
@@ -6536,7 +6533,7 @@
       <c r="AD81" s="28"/>
       <c r="AE81" s="28"/>
       <c r="AF81" s="28"/>
-      <c r="AG81" s="39"/>
+      <c r="AG81" s="38"/>
       <c r="AI81" s="28"/>
       <c r="AJ81" s="28"/>
     </row>
@@ -6575,7 +6572,7 @@
       <c r="AD82" s="28"/>
       <c r="AE82" s="28"/>
       <c r="AF82" s="28"/>
-      <c r="AG82" s="39"/>
+      <c r="AG82" s="38"/>
       <c r="AI82" s="28"/>
       <c r="AJ82" s="28"/>
     </row>
@@ -6614,7 +6611,7 @@
       <c r="AD83" s="28"/>
       <c r="AE83" s="28"/>
       <c r="AF83" s="28"/>
-      <c r="AG83" s="39"/>
+      <c r="AG83" s="38"/>
       <c r="AI83" s="28"/>
       <c r="AJ83" s="28"/>
     </row>
@@ -6653,7 +6650,7 @@
       <c r="AD84" s="28"/>
       <c r="AE84" s="28"/>
       <c r="AF84" s="28"/>
-      <c r="AG84" s="39"/>
+      <c r="AG84" s="38"/>
       <c r="AI84" s="28"/>
       <c r="AJ84" s="28"/>
     </row>
@@ -6692,7 +6689,7 @@
       <c r="AD85" s="28"/>
       <c r="AE85" s="28"/>
       <c r="AF85" s="28"/>
-      <c r="AG85" s="39"/>
+      <c r="AG85" s="38"/>
       <c r="AI85" s="28"/>
       <c r="AJ85" s="28"/>
     </row>
@@ -6731,7 +6728,7 @@
       <c r="AD86" s="28"/>
       <c r="AE86" s="28"/>
       <c r="AF86" s="28"/>
-      <c r="AG86" s="39"/>
+      <c r="AG86" s="38"/>
       <c r="AI86" s="28"/>
       <c r="AJ86" s="28"/>
     </row>
@@ -6770,7 +6767,7 @@
       <c r="AD87" s="28"/>
       <c r="AE87" s="28"/>
       <c r="AF87" s="28"/>
-      <c r="AG87" s="39"/>
+      <c r="AG87" s="38"/>
       <c r="AI87" s="28"/>
       <c r="AJ87" s="28"/>
     </row>
@@ -6809,7 +6806,7 @@
       <c r="AD88" s="28"/>
       <c r="AE88" s="28"/>
       <c r="AF88" s="28"/>
-      <c r="AG88" s="39"/>
+      <c r="AG88" s="38"/>
       <c r="AI88" s="28"/>
       <c r="AJ88" s="28"/>
     </row>
@@ -6848,7 +6845,7 @@
       <c r="AD89" s="28"/>
       <c r="AE89" s="28"/>
       <c r="AF89" s="28"/>
-      <c r="AG89" s="39"/>
+      <c r="AG89" s="38"/>
       <c r="AI89" s="28"/>
       <c r="AJ89" s="28"/>
     </row>
@@ -6887,7 +6884,7 @@
       <c r="AD90" s="28"/>
       <c r="AE90" s="28"/>
       <c r="AF90" s="28"/>
-      <c r="AG90" s="39"/>
+      <c r="AG90" s="38"/>
       <c r="AI90" s="28"/>
       <c r="AJ90" s="28"/>
     </row>
@@ -6926,7 +6923,7 @@
       <c r="AD91" s="28"/>
       <c r="AE91" s="28"/>
       <c r="AF91" s="28"/>
-      <c r="AG91" s="39"/>
+      <c r="AG91" s="38"/>
       <c r="AI91" s="28"/>
       <c r="AJ91" s="28"/>
     </row>
@@ -6965,7 +6962,7 @@
       <c r="AD92" s="28"/>
       <c r="AE92" s="28"/>
       <c r="AF92" s="28"/>
-      <c r="AG92" s="39"/>
+      <c r="AG92" s="38"/>
       <c r="AI92" s="28"/>
       <c r="AJ92" s="28"/>
     </row>
@@ -7004,7 +7001,7 @@
       <c r="AD93" s="28"/>
       <c r="AE93" s="28"/>
       <c r="AF93" s="28"/>
-      <c r="AG93" s="39"/>
+      <c r="AG93" s="38"/>
       <c r="AI93" s="28"/>
       <c r="AJ93" s="28"/>
     </row>
@@ -7043,7 +7040,7 @@
       <c r="AD94" s="28"/>
       <c r="AE94" s="28"/>
       <c r="AF94" s="28"/>
-      <c r="AG94" s="39"/>
+      <c r="AG94" s="38"/>
       <c r="AI94" s="28"/>
       <c r="AJ94" s="28"/>
     </row>
@@ -7082,7 +7079,7 @@
       <c r="AD95" s="28"/>
       <c r="AE95" s="28"/>
       <c r="AF95" s="28"/>
-      <c r="AG95" s="39"/>
+      <c r="AG95" s="38"/>
       <c r="AI95" s="28"/>
       <c r="AJ95" s="28"/>
     </row>
@@ -7121,7 +7118,7 @@
       <c r="AD96" s="28"/>
       <c r="AE96" s="28"/>
       <c r="AF96" s="28"/>
-      <c r="AG96" s="39"/>
+      <c r="AG96" s="38"/>
       <c r="AI96" s="28"/>
       <c r="AJ96" s="28"/>
     </row>
@@ -7160,7 +7157,7 @@
       <c r="AD97" s="28"/>
       <c r="AE97" s="28"/>
       <c r="AF97" s="28"/>
-      <c r="AG97" s="39"/>
+      <c r="AG97" s="38"/>
       <c r="AI97" s="28"/>
       <c r="AJ97" s="28"/>
     </row>
@@ -7199,7 +7196,7 @@
       <c r="AD98" s="28"/>
       <c r="AE98" s="28"/>
       <c r="AF98" s="28"/>
-      <c r="AG98" s="39"/>
+      <c r="AG98" s="38"/>
       <c r="AI98" s="28"/>
       <c r="AJ98" s="28"/>
     </row>
@@ -7238,7 +7235,7 @@
       <c r="AD99" s="28"/>
       <c r="AE99" s="28"/>
       <c r="AF99" s="28"/>
-      <c r="AG99" s="39"/>
+      <c r="AG99" s="38"/>
       <c r="AI99" s="28"/>
       <c r="AJ99" s="28"/>
     </row>
@@ -7277,7 +7274,7 @@
       <c r="AD100" s="28"/>
       <c r="AE100" s="28"/>
       <c r="AF100" s="28"/>
-      <c r="AG100" s="39"/>
+      <c r="AG100" s="38"/>
       <c r="AI100" s="28"/>
       <c r="AJ100" s="28"/>
     </row>
@@ -7316,7 +7313,7 @@
       <c r="AD101" s="28"/>
       <c r="AE101" s="28"/>
       <c r="AF101" s="28"/>
-      <c r="AG101" s="39"/>
+      <c r="AG101" s="38"/>
       <c r="AI101" s="28"/>
       <c r="AJ101" s="28"/>
     </row>
@@ -7355,7 +7352,7 @@
       <c r="AD102" s="28"/>
       <c r="AE102" s="28"/>
       <c r="AF102" s="28"/>
-      <c r="AG102" s="39"/>
+      <c r="AG102" s="38"/>
       <c r="AI102" s="28"/>
       <c r="AJ102" s="28"/>
     </row>
@@ -7394,7 +7391,7 @@
       <c r="AD103" s="28"/>
       <c r="AE103" s="28"/>
       <c r="AF103" s="28"/>
-      <c r="AG103" s="39"/>
+      <c r="AG103" s="38"/>
       <c r="AI103" s="28"/>
       <c r="AJ103" s="28"/>
     </row>
@@ -7433,7 +7430,7 @@
       <c r="AD104" s="28"/>
       <c r="AE104" s="28"/>
       <c r="AF104" s="28"/>
-      <c r="AG104" s="39"/>
+      <c r="AG104" s="38"/>
       <c r="AI104" s="28"/>
       <c r="AJ104" s="28"/>
     </row>
@@ -7472,7 +7469,7 @@
       <c r="AD105" s="28"/>
       <c r="AE105" s="28"/>
       <c r="AF105" s="28"/>
-      <c r="AG105" s="39"/>
+      <c r="AG105" s="38"/>
       <c r="AI105" s="28"/>
       <c r="AJ105" s="28"/>
     </row>
@@ -7511,7 +7508,7 @@
       <c r="AD106" s="28"/>
       <c r="AE106" s="28"/>
       <c r="AF106" s="28"/>
-      <c r="AG106" s="39"/>
+      <c r="AG106" s="38"/>
       <c r="AI106" s="28"/>
       <c r="AJ106" s="28"/>
     </row>
@@ -7550,7 +7547,7 @@
       <c r="AD107" s="28"/>
       <c r="AE107" s="28"/>
       <c r="AF107" s="28"/>
-      <c r="AG107" s="39"/>
+      <c r="AG107" s="38"/>
       <c r="AI107" s="28"/>
       <c r="AJ107" s="28"/>
     </row>
@@ -7589,7 +7586,7 @@
       <c r="AD108" s="28"/>
       <c r="AE108" s="28"/>
       <c r="AF108" s="28"/>
-      <c r="AG108" s="39"/>
+      <c r="AG108" s="38"/>
       <c r="AI108" s="28"/>
       <c r="AJ108" s="28"/>
     </row>
@@ -7628,7 +7625,7 @@
       <c r="AD109" s="28"/>
       <c r="AE109" s="28"/>
       <c r="AF109" s="28"/>
-      <c r="AG109" s="39"/>
+      <c r="AG109" s="38"/>
       <c r="AI109" s="28"/>
       <c r="AJ109" s="28"/>
     </row>
@@ -7667,7 +7664,7 @@
       <c r="AD110" s="28"/>
       <c r="AE110" s="28"/>
       <c r="AF110" s="28"/>
-      <c r="AG110" s="39"/>
+      <c r="AG110" s="38"/>
       <c r="AI110" s="28"/>
       <c r="AJ110" s="28"/>
     </row>
@@ -7706,7 +7703,7 @@
       <c r="AD111" s="28"/>
       <c r="AE111" s="28"/>
       <c r="AF111" s="28"/>
-      <c r="AG111" s="39"/>
+      <c r="AG111" s="38"/>
       <c r="AI111" s="28"/>
       <c r="AJ111" s="28"/>
     </row>
@@ -7745,7 +7742,7 @@
       <c r="AD112" s="28"/>
       <c r="AE112" s="28"/>
       <c r="AF112" s="28"/>
-      <c r="AG112" s="39"/>
+      <c r="AG112" s="38"/>
       <c r="AI112" s="28"/>
       <c r="AJ112" s="28"/>
     </row>
@@ -7784,7 +7781,7 @@
       <c r="AD113" s="28"/>
       <c r="AE113" s="28"/>
       <c r="AF113" s="28"/>
-      <c r="AG113" s="39"/>
+      <c r="AG113" s="38"/>
       <c r="AI113" s="28"/>
       <c r="AJ113" s="28"/>
     </row>
@@ -7823,7 +7820,7 @@
       <c r="AD114" s="28"/>
       <c r="AE114" s="28"/>
       <c r="AF114" s="28"/>
-      <c r="AG114" s="39"/>
+      <c r="AG114" s="38"/>
       <c r="AI114" s="28"/>
       <c r="AJ114" s="28"/>
     </row>
@@ -7862,7 +7859,7 @@
       <c r="AD115" s="28"/>
       <c r="AE115" s="28"/>
       <c r="AF115" s="28"/>
-      <c r="AG115" s="39"/>
+      <c r="AG115" s="38"/>
       <c r="AI115" s="28"/>
       <c r="AJ115" s="28"/>
     </row>
@@ -7901,7 +7898,7 @@
       <c r="AD116" s="28"/>
       <c r="AE116" s="28"/>
       <c r="AF116" s="28"/>
-      <c r="AG116" s="39"/>
+      <c r="AG116" s="38"/>
       <c r="AI116" s="28"/>
       <c r="AJ116" s="28"/>
     </row>
@@ -7940,7 +7937,7 @@
       <c r="AD117" s="28"/>
       <c r="AE117" s="28"/>
       <c r="AF117" s="28"/>
-      <c r="AG117" s="39"/>
+      <c r="AG117" s="38"/>
       <c r="AI117" s="28"/>
       <c r="AJ117" s="28"/>
     </row>
@@ -7979,7 +7976,7 @@
       <c r="AD118" s="28"/>
       <c r="AE118" s="28"/>
       <c r="AF118" s="28"/>
-      <c r="AG118" s="39"/>
+      <c r="AG118" s="38"/>
       <c r="AI118" s="28"/>
       <c r="AJ118" s="28"/>
     </row>
@@ -8018,7 +8015,7 @@
       <c r="AD119" s="28"/>
       <c r="AE119" s="28"/>
       <c r="AF119" s="28"/>
-      <c r="AG119" s="39"/>
+      <c r="AG119" s="38"/>
       <c r="AI119" s="28"/>
       <c r="AJ119" s="28"/>
     </row>
@@ -8057,7 +8054,7 @@
       <c r="AD120" s="28"/>
       <c r="AE120" s="28"/>
       <c r="AF120" s="28"/>
-      <c r="AG120" s="39"/>
+      <c r="AG120" s="38"/>
       <c r="AI120" s="28"/>
       <c r="AJ120" s="28"/>
     </row>
@@ -8096,7 +8093,7 @@
       <c r="AD121" s="28"/>
       <c r="AE121" s="28"/>
       <c r="AF121" s="28"/>
-      <c r="AG121" s="39"/>
+      <c r="AG121" s="38"/>
       <c r="AI121" s="28"/>
       <c r="AJ121" s="28"/>
     </row>
@@ -8135,7 +8132,7 @@
       <c r="AD122" s="28"/>
       <c r="AE122" s="28"/>
       <c r="AF122" s="28"/>
-      <c r="AG122" s="39"/>
+      <c r="AG122" s="38"/>
       <c r="AI122" s="28"/>
       <c r="AJ122" s="28"/>
     </row>
@@ -8174,7 +8171,7 @@
       <c r="AD123" s="28"/>
       <c r="AE123" s="28"/>
       <c r="AF123" s="28"/>
-      <c r="AG123" s="39"/>
+      <c r="AG123" s="38"/>
       <c r="AI123" s="28"/>
       <c r="AJ123" s="28"/>
     </row>
@@ -8213,7 +8210,7 @@
       <c r="AD124" s="28"/>
       <c r="AE124" s="28"/>
       <c r="AF124" s="28"/>
-      <c r="AG124" s="39"/>
+      <c r="AG124" s="38"/>
       <c r="AI124" s="28"/>
       <c r="AJ124" s="28"/>
     </row>
@@ -8252,7 +8249,7 @@
       <c r="AD125" s="28"/>
       <c r="AE125" s="28"/>
       <c r="AF125" s="28"/>
-      <c r="AG125" s="39"/>
+      <c r="AG125" s="38"/>
       <c r="AI125" s="28"/>
       <c r="AJ125" s="28"/>
     </row>
@@ -8291,7 +8288,7 @@
       <c r="AD126" s="28"/>
       <c r="AE126" s="28"/>
       <c r="AF126" s="28"/>
-      <c r="AG126" s="39"/>
+      <c r="AG126" s="38"/>
       <c r="AI126" s="28"/>
       <c r="AJ126" s="28"/>
     </row>
@@ -8330,7 +8327,7 @@
       <c r="AD127" s="28"/>
       <c r="AE127" s="28"/>
       <c r="AF127" s="28"/>
-      <c r="AG127" s="39"/>
+      <c r="AG127" s="38"/>
       <c r="AI127" s="28"/>
       <c r="AJ127" s="28"/>
     </row>
@@ -8369,7 +8366,7 @@
       <c r="AD128" s="28"/>
       <c r="AE128" s="28"/>
       <c r="AF128" s="28"/>
-      <c r="AG128" s="39"/>
+      <c r="AG128" s="38"/>
       <c r="AI128" s="28"/>
       <c r="AJ128" s="28"/>
     </row>
@@ -8408,7 +8405,7 @@
       <c r="AD129" s="28"/>
       <c r="AE129" s="28"/>
       <c r="AF129" s="28"/>
-      <c r="AG129" s="39"/>
+      <c r="AG129" s="38"/>
       <c r="AI129" s="28"/>
       <c r="AJ129" s="28"/>
     </row>
@@ -8447,7 +8444,7 @@
       <c r="AD130" s="28"/>
       <c r="AE130" s="28"/>
       <c r="AF130" s="28"/>
-      <c r="AG130" s="39"/>
+      <c r="AG130" s="38"/>
       <c r="AI130" s="28"/>
       <c r="AJ130" s="28"/>
     </row>
@@ -8486,7 +8483,7 @@
       <c r="AD131" s="28"/>
       <c r="AE131" s="28"/>
       <c r="AF131" s="28"/>
-      <c r="AG131" s="39"/>
+      <c r="AG131" s="38"/>
       <c r="AI131" s="28"/>
       <c r="AJ131" s="28"/>
     </row>
@@ -8511,7 +8508,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
       <c r="Y132" s="1"/>
-      <c r="AH132" s="40"/>
+      <c r="AH132" s="39"/>
     </row>
     <row r="133" spans="1:25">
       <c r="A133" s="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/洽洽食品-JH_00034.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/洽洽食品-JH_00034.xlsx
@@ -240,12 +240,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -307,14 +307,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,20 +321,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -350,11 +329,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -367,14 +353,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -382,7 +375,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -405,23 +406,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -435,16 +421,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,7 +519,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,19 +543,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,31 +567,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,25 +615,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,31 +627,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,7 +651,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,19 +669,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,15 +742,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -762,6 +753,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,168 +839,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -999,7 +999,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1014,7 +1014,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1080,7 +1080,7 @@
     <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1098,7 +1098,7 @@
     <xf numFmtId="44" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1125,7 +1125,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3481,11 +3481,11 @@
   <dimension ref="A1:AK500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AK7" sqref="AK7:AK8"/>
+      <selection pane="bottomRight" activeCell="AK1" sqref="AK1:AK5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
